--- a/Analisis Info No estructurada/noticias_completed.xlsx
+++ b/Analisis Info No estructurada/noticias_completed.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,57 +491,171 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Iberdrola.</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Social</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve"> People Centric</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Promover los derechos de las mujeres.</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t xml:space="preserve"> No</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t xml:space="preserve"> No.</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Personas interesadas en deporte femenino.</t>
         </is>
       </c>
-      <c r="H2" s="2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Ocio y Medioambiental.</t>
         </is>
       </c>
-      <c r="I2" s="2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t xml:space="preserve"> ODS 5: Igualdad de Género.</t>
         </is>
       </c>
-      <c r="J2" s="2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Las jugadoras de la selección española femenina.</t>
         </is>
       </c>
-      <c r="K2" s="2" t="inlineStr">
+      <c r="K2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Noticia</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Iberdrola.</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Social.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> People Centric.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Impulsar la oferta cultural en el mundo rural.</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> No.</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> No.</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Personas del mundo rural.</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Desarrollo Comunitario, Medioambiental.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ODS 11: Ciudades y Comunidades Sostenibles.</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Vecinos, nios, mayores, veraneantes y todos los habitantes del mundo rural.</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Noticia</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Engie.</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Medioambiental.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Planet Positive.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Descarbonizar la industria y mejorar la dependencia energética del exterior.</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ENAGS Renovable, Fivet Hydrogen Pontegadea, Navantia.</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sí, hay otras empresas que colaboran con la empresa principal. Las empresas son: Ardian (privada), Fivet Hydrogen Pontegadea (privada), Navantia (pública) y ENAGS (privada).</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> La industria de la región de Murcia.</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Medioambiente.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ODS 7.</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> La región de Murcia, Repsol, ENAGS Renovable, Engie, la industria del Valle de Escombreras y la Asociación Sectorial del Hidrógeno Verde en la Región de Murcia.</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Noticia</t>
         </is>

--- a/Analisis Info No estructurada/noticias_completed.xlsx
+++ b/Analisis Info No estructurada/noticias_completed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -661,6 +661,63 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Engie.</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Social.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sostenibilidad.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> El objetivo de la iniciativa es promover la lucha contra el cambio climático y la protección de la biodiversidad.</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> No.</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ciudadanos españoles.</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Medioambiental.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ODS 13: Acción por el clima.</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ciudadanos españoles.</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Noticia</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Analisis Info No estructurada/noticias_completed.xlsx
+++ b/Analisis Info No estructurada/noticias_completed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,6 +718,63 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Iberdrola</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Social.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> People Centric.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Promover los derechos de las mujeres.</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Santander</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sí, hay varias empresas que colaboran con la empresa principal. Estas son Fundación Pegasus (privada), Fundación Diversidad (privada), Iberdrola España (pública) y Grupo Santander (privada).</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mujeres jóvenes.</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Diversidad, Educación, Empleo, Innovación.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ODS 10: Reducir las desigualdades.</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Las mujeres, los jóvenes, los trabajadores de Iberdrola, las personas con autismo.</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Noticia</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Analisis Info No estructurada/noticias_completed.xlsx
+++ b/Analisis Info No estructurada/noticias_completed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -775,6 +775,63 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Iberdrola.</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Social</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> People Centric.</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Promover el cuidado del medio ambiente, la inclusión de colectivos vulnerables y la asistencia social.</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> No.</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Personas con discapacidad, familias vulnerables, personas sin hogar y el banco de alimentos.</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Medioambiental.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ODS 11: Ciudades y Comunidades Sostenibles.</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Personas con discapacidad, personas vulnerables, familias vulnerables, personas sin hogar.</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Noticia</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Analisis Info No estructurada/noticias_completed.xlsx
+++ b/Analisis Info No estructurada/noticias_completed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -832,6 +832,63 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Engie.</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Social.</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Planet Positive.</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Promover los derechos de las mujeres.</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sí, Bureau Veritas.</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Si, hay otras empresas que colaboran con la empresa principal. La empresa principal es privada, mientras que las empresas colaboradoras pueden ser tanto privadas como públicas.</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Empresas.</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Medioambiental.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ODS 13: Acción por el clima.</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Las comunidades locales, el medio ambiente y la biodiversidad.</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Noticia</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Analisis Info No estructurada/noticias_completed.xlsx
+++ b/Analisis Info No estructurada/noticias_completed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -889,6 +889,63 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ENGIE.</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Social</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sostenibilidad.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Promover los derechos de las mujeres.</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> No.</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>No.</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Personas involucradas en la industria de la energía.</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Medioambiental.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ODS 13: Acción por el clima.</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Las empresas, trabajadores, consumidores, comunidades locales, proveedores, accionistas, financiadores, clientes y la sociedad.</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Noticia</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Analisis Info No estructurada/noticias_completed.xlsx
+++ b/Analisis Info No estructurada/noticias_completed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -946,6 +946,63 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Empresa.</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Social.</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> People Centric.</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Impulsar el talento joven STEM.</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> No.</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>No.</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jóvenes profesionales STEM con poca o ninguna experiencia.</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Empleo.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ODS 4.</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 101 nuevos profesionales STEM.</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Noticia</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Analisis Info No estructurada/noticias_completed.xlsx
+++ b/Analisis Info No estructurada/noticias_completed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1003,6 +1003,63 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Engie</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Medioambiental.</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sostenibilidad Ambiental.</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Promover la protección de la biodiversidad.</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Consejo Comarcal, Agentes Rurales, Gobierno de Aragón, Confederación Hidrográfica del Duero, Universidad de Valladolid.</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sí, hay otra empresa que colabora con la empresa principal: la Consejería de Medio Ambiente, que es pública.</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Personas interesadas en la protección y conservación del medio ambiente y la biodiversidad.</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Medioambiental</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ODS 7.</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Las personas de la región española, así como la fauna y flora locales.</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Noticia.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
